--- a/dokumentasi/designAPI.xlsx
+++ b/dokumentasi/designAPI.xlsx
@@ -1,130 +1,624 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\Vaccine_Booking_System-BackEnd\dokumentasi\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10C97BFD-E749-4922-BC35-8F6E887147C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F8B11FC6-D88F-4341-82FF-7C65A431EE56}"/>
+    <workbookView windowWidth="23040" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
-  <si>
-    <t>METHOD</t>
-  </si>
-  <si>
-    <t>DESIGN</t>
-  </si>
-  <si>
-    <t>Hasil</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="71">
+  <si>
+    <t>DATA CONTRACT</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>HTTP METHOD</t>
+  </si>
+  <si>
+    <t>URL PATH</t>
+  </si>
+  <si>
+    <t>STATUS CODE</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ACCESS</t>
+  </si>
+  <si>
+    <t>GET ALL</t>
+  </si>
+  <si>
+    <t>/api/user</t>
+  </si>
+  <si>
+    <t>200 (OK)</t>
+  </si>
+  <si>
+    <t>Get all user</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>GET DETAIL</t>
+  </si>
+  <si>
+    <t>/api/user/{id}</t>
+  </si>
+  <si>
+    <t>Get user by id</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>/api/citizen/</t>
-  </si>
-  <si>
-    <t>Menambahkan citizen baru</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>/api/sertifikatDTO</t>
-  </si>
-  <si>
-    <t>Menemukan data sertifikat baru</t>
-  </si>
-  <si>
-    <t>/api/citizen</t>
-  </si>
-  <si>
-    <t>Menemukan semua citizen</t>
-  </si>
-  <si>
-    <t>/api/citizen/{id}</t>
-  </si>
-  <si>
-    <t>Menemukan citizen sesuai dengan ID</t>
+    <t>Create User Account</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Create Health Facility Account</t>
   </si>
   <si>
     <t>PUT</t>
   </si>
   <si>
-    <t>Mengubah data citizen</t>
+    <t>Update user</t>
+  </si>
+  <si>
+    <t>Admin, User</t>
   </si>
   <si>
     <t>DELETE</t>
   </si>
   <si>
-    <t>Menghapus data citizen sesuai id</t>
-  </si>
-  <si>
-    <t>/V2/auth/register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">untuk register jwt </t>
-  </si>
-  <si>
-    <t>/V2/auth/token</t>
-  </si>
-  <si>
-    <t xml:space="preserve">untuk token jwt </t>
+    <t>Delete user by id</t>
+  </si>
+  <si>
+    <t>AUTH</t>
+  </si>
+  <si>
+    <t>/api/auth/register</t>
+  </si>
+  <si>
+    <t>Sign up account</t>
+  </si>
+  <si>
+    <t>/api/auth/login</t>
+  </si>
+  <si>
+    <t>Sign in account</t>
+  </si>
+  <si>
+    <t>Admin,User</t>
+  </si>
+  <si>
+    <t>Kelompok</t>
+  </si>
+  <si>
+    <t>/api/kelompok</t>
+  </si>
+  <si>
+    <t>Create kelompok</t>
+  </si>
+  <si>
+    <t>Get all kelompok</t>
+  </si>
+  <si>
+    <t>/api/kelompok/{id}</t>
+  </si>
+  <si>
+    <t>Get kelompok by id</t>
+  </si>
+  <si>
+    <t>Update kelompok</t>
+  </si>
+  <si>
+    <t>Delete kelompok by id</t>
+  </si>
+  <si>
+    <t>Vaksin</t>
+  </si>
+  <si>
+    <t>/api/vaksin</t>
+  </si>
+  <si>
+    <t>Create vaksin</t>
+  </si>
+  <si>
+    <t>Get all vaksin</t>
+  </si>
+  <si>
+    <t>/api/vaksin/{id}</t>
+  </si>
+  <si>
+    <t>Get vaksin by id</t>
+  </si>
+  <si>
+    <t>Update vaksin</t>
+  </si>
+  <si>
+    <t>Delete vaksin by id</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>/api/session</t>
+  </si>
+  <si>
+    <t>Create session</t>
+  </si>
+  <si>
+    <t>/api/session/</t>
+  </si>
+  <si>
+    <t>Get all session</t>
+  </si>
+  <si>
+    <t>/api/session/{id}</t>
+  </si>
+  <si>
+    <t>Get session by id</t>
+  </si>
+  <si>
+    <t>Update session</t>
+  </si>
+  <si>
+    <t>Delete session by id</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>/api/schedule</t>
+  </si>
+  <si>
+    <t>Create schedule</t>
+  </si>
+  <si>
+    <t>/api/schedule/</t>
+  </si>
+  <si>
+    <t>Get all schedule</t>
+  </si>
+  <si>
+    <t>/api/schedule/{id}</t>
+  </si>
+  <si>
+    <t>Get schedule by id</t>
+  </si>
+  <si>
+    <t>Update schedule</t>
+  </si>
+  <si>
+    <t>Delete schedule by id</t>
+  </si>
+  <si>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>/api/booking</t>
+  </si>
+  <si>
+    <t>Create booking</t>
+  </si>
+  <si>
+    <t>/api/booking/</t>
+  </si>
+  <si>
+    <t>Get all booking</t>
+  </si>
+  <si>
+    <t>/api/booking/{id}</t>
+  </si>
+  <si>
+    <t>Get booking by id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -158,30 +652,341 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -230,7 +1035,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -263,26 +1068,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -315,23 +1103,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -473,130 +1244,751 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1928DBDB-CA8C-49F2-B4B2-E13DDD54B7AF}">
-  <dimension ref="B7:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B7:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.5740740740741" customWidth="1"/>
+    <col min="3" max="3" width="21.8518518518519" customWidth="1"/>
+    <col min="4" max="4" width="29.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="12.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="34.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="47.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="7" ht="17.4" spans="2:4">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" ht="17.4" spans="2:4">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" ht="17.4" spans="2:4">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" ht="17.4" spans="2:4">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" ht="17.4" spans="2:4">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" ht="17.4" spans="2:4">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" ht="17.4" spans="2:3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="14" ht="17.4" spans="2:2">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" ht="18.15" spans="2:3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="16" ht="28.35" spans="3:7">
+      <c r="C16" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F16" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="G16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="17" ht="28.35" spans="3:7">
+      <c r="C17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D17" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="E17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" ht="28.35" spans="3:7">
+      <c r="C18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" ht="42.15" spans="3:7">
+      <c r="C19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" ht="55.95" spans="3:7">
+      <c r="C20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" ht="28.35" spans="3:7">
+      <c r="C21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" ht="42.15" spans="3:7">
+      <c r="C22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" ht="15.15" spans="3:3">
+      <c r="C24" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" ht="28.35" spans="3:7">
+      <c r="C25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="26" ht="28.35" spans="3:7">
+      <c r="C26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="28.35" spans="3:7">
+      <c r="C27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" ht="15.15" spans="3:3">
+      <c r="C29" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" ht="28.35" spans="3:7">
+      <c r="C30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="31" ht="42.15" spans="3:7">
+      <c r="C31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" ht="42.15" spans="3:7">
+      <c r="C32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" ht="42.15" spans="3:7">
+      <c r="C33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" ht="42.15" spans="3:7">
+      <c r="C34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" ht="42.15" spans="3:7">
+      <c r="C35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1" t="s">
+    </row>
+    <row r="37" ht="15.15" spans="3:3">
+      <c r="C37" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" ht="28.35" spans="3:7">
+      <c r="C38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" ht="28.35" spans="3:7">
+      <c r="C39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" ht="28.35" spans="3:7">
+      <c r="C40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" ht="42.15" spans="3:7">
+      <c r="C41" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D41" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="42" ht="28.35" spans="3:7">
+      <c r="C42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" ht="42.15" spans="3:7">
+      <c r="C43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" ht="15.15" spans="3:3">
+      <c r="C45" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" ht="28.35" spans="3:7">
+      <c r="C46" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" ht="28.35" spans="3:7">
+      <c r="C47" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D47" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+    </row>
+    <row r="48" ht="28.35" spans="3:7">
+      <c r="C48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" ht="42.15" spans="3:7">
+      <c r="C49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" ht="28.35" spans="3:7">
+      <c r="C50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" ht="42.15" spans="3:7">
+      <c r="C51" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" ht="15.15" spans="3:3">
+      <c r="C53" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" ht="28.35" spans="3:7">
+      <c r="C54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="E54" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" ht="28.35" spans="3:7">
+      <c r="C55" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" ht="28.35" spans="3:7">
+      <c r="C56" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" ht="42.15" spans="3:7">
+      <c r="C57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" ht="28.35" spans="3:7">
+      <c r="C58" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" ht="42.15" spans="3:7">
+      <c r="C59" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" ht="15.15" spans="3:3">
+      <c r="C61" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" ht="28.35" spans="3:7">
+      <c r="C62" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>20</v>
+      <c r="E62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" ht="28.35" spans="3:7">
+      <c r="C63" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" ht="28.35" spans="3:7">
+      <c r="C64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" ht="42.15" spans="3:7">
+      <c r="C65" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/dokumentasi/designAPI.xlsx
+++ b/dokumentasi/designAPI.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\Vaccine_Booking_System-BackEnd\dokumentasi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846AD203-C723-423B-8A80-37A7B1BE73F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9924"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="76">
   <si>
     <t>DATA CONTRACT</t>
   </si>
@@ -227,24 +233,40 @@
   </si>
   <si>
     <t>Get booking by id</t>
+  </si>
+  <si>
+    <t>Url= https://booking-vaksin-alta.herokuapp.com</t>
+  </si>
+  <si>
+    <t>api/user/search/{kota}</t>
+  </si>
+  <si>
+    <t>Get city by name kota</t>
+  </si>
+  <si>
+    <t>Get Search</t>
+  </si>
+  <si>
+    <t>Admin user</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,158 +289,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="8"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,194 +321,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -668,325 +372,131 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
-        <color theme="4"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1244,74 +754,78 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B7:G65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B7:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.5740740740741" customWidth="1"/>
-    <col min="3" max="3" width="21.8518518518519" customWidth="1"/>
-    <col min="4" max="4" width="29.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="12.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="34.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="47.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" customWidth="1"/>
+    <col min="7" max="7" width="47.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="17.4" spans="2:4">
+    <row r="7" spans="2:7" ht="18">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" ht="17.4" spans="2:4">
+    <row r="8" spans="2:7" ht="18">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" ht="17.4" spans="2:4">
+    <row r="9" spans="2:7" ht="18">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" ht="17.4" spans="2:4">
+    <row r="10" spans="2:7" ht="18">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" ht="17.4" spans="2:4">
+    <row r="11" spans="2:7" ht="18">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" ht="17.4" spans="2:4">
+    <row r="12" spans="2:7" ht="18">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" ht="17.4" spans="2:3">
+    <row r="13" spans="2:7" ht="18.75">
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" ht="17.4" spans="2:2">
+      <c r="D13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="2:7" ht="18">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" ht="18.15" spans="2:3">
+    <row r="15" spans="2:7" ht="18">
       <c r="B15" s="3"/>
       <c r="C15" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="28.35" spans="3:7">
+    <row r="16" spans="2:7" ht="30">
       <c r="C16" s="5" t="s">
         <v>2</v>
       </c>
@@ -1328,7 +842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" ht="28.35" spans="3:7">
+    <row r="17" spans="3:7">
       <c r="C17" s="6" t="s">
         <v>7</v>
       </c>
@@ -1345,7 +859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" ht="28.35" spans="3:7">
+    <row r="18" spans="3:7">
       <c r="C18" s="6" t="s">
         <v>12</v>
       </c>
@@ -1362,7 +876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" ht="42.15" spans="3:7">
+    <row r="19" spans="3:7">
       <c r="C19" s="6" t="s">
         <v>15</v>
       </c>
@@ -1379,7 +893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" ht="55.95" spans="3:7">
+    <row r="20" spans="3:7" ht="15.75" thickBot="1">
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
@@ -1396,138 +910,138 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" ht="28.35" spans="3:7">
-      <c r="C21" s="6" t="s">
+    <row r="21" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="6" t="s">
+      <c r="E21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" ht="42.15" spans="3:7">
-      <c r="C22" s="6" t="s">
+    <row r="22" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="E22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" ht="15.15" spans="3:3">
-      <c r="C24" s="4" t="s">
+    <row r="23" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C23" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" ht="28.35" spans="3:7">
-      <c r="C25" s="5" t="s">
+    <row r="26" spans="3:7" ht="30.75" thickBot="1">
+      <c r="C26" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" ht="28.35" spans="3:7">
-      <c r="C26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" ht="28.35" spans="3:7">
+    <row r="27" spans="3:7" ht="15.75" thickBot="1">
       <c r="C27" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="6" t="s">
+      <c r="E28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" ht="15.15" spans="3:3">
-      <c r="C29" s="4" t="s">
+    <row r="30" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C30" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" ht="28.35" spans="3:7">
-      <c r="C30" s="5" t="s">
+    <row r="31" spans="3:7" ht="30.75" thickBot="1">
+      <c r="C31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" ht="42.15" spans="3:7">
-      <c r="C31" s="6" t="s">
+    <row r="32" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C32" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" ht="42.15" spans="3:7">
-      <c r="C32" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>31</v>
@@ -1536,32 +1050,32 @@
         <v>9</v>
       </c>
       <c r="F32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" ht="42.15" spans="3:7">
-      <c r="C33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" ht="42.15" spans="3:7">
+    <row r="34" spans="3:7" ht="15.75" thickBot="1">
       <c r="C34" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>34</v>
@@ -1570,15 +1084,15 @@
         <v>9</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" ht="42.15" spans="3:7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" ht="15.75" thickBot="1">
       <c r="C35" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>34</v>
@@ -1587,54 +1101,54 @@
         <v>9</v>
       </c>
       <c r="F35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" ht="15.15" spans="3:3">
-      <c r="C37" s="4" t="s">
+      <c r="G36" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C38" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" ht="28.35" spans="3:7">
-      <c r="C38" s="5" t="s">
+    <row r="39" spans="3:7" ht="30.75" thickBot="1">
+      <c r="C39" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F39" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G39" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" ht="28.35" spans="3:7">
-      <c r="C39" s="6" t="s">
+    <row r="40" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C40" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" ht="28.35" spans="3:7">
-      <c r="C40" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>39</v>
@@ -1643,32 +1157,32 @@
         <v>9</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" ht="42.15" spans="3:7">
+    <row r="41" spans="3:7" ht="15.75" thickBot="1">
       <c r="C41" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42" ht="28.35" spans="3:7">
+    <row r="42" spans="3:7" ht="15.75" thickBot="1">
       <c r="C42" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>42</v>
@@ -1677,15 +1191,15 @@
         <v>9</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="43" ht="42.15" spans="3:7">
+    <row r="43" spans="3:7" ht="15.75" thickBot="1">
       <c r="C43" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>42</v>
@@ -1694,88 +1208,88 @@
         <v>9</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" ht="15.15" spans="3:3">
-      <c r="C45" s="4" t="s">
+    <row r="44" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C46" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" ht="28.35" spans="3:7">
-      <c r="C46" s="5" t="s">
+    <row r="47" spans="3:7" ht="30.75" thickBot="1">
+      <c r="C47" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F47" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G47" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" ht="28.35" spans="3:7">
-      <c r="C47" s="6" t="s">
+    <row r="48" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C48" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="6" t="s">
+      <c r="E48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G48" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48" ht="28.35" spans="3:7">
-      <c r="C48" s="6" t="s">
+    <row r="49" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="6" t="s">
+      <c r="E49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" ht="42.15" spans="3:7">
-      <c r="C49" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" ht="28.35" spans="3:7">
+    <row r="50" spans="3:7" ht="15.75" thickBot="1">
       <c r="C50" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>51</v>
@@ -1784,15 +1298,15 @@
         <v>9</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" ht="42.15" spans="3:7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" ht="15.75" thickBot="1">
       <c r="C51" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>51</v>
@@ -1801,88 +1315,88 @@
         <v>9</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" ht="15.15" spans="3:3">
-      <c r="C53" s="4" t="s">
+    <row r="52" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C52" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C54" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" ht="28.35" spans="3:7">
-      <c r="C54" s="5" t="s">
+    <row r="55" spans="3:7" ht="30.75" thickBot="1">
+      <c r="C55" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D55" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E55" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F55" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G55" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" ht="28.35" spans="3:7">
-      <c r="C55" s="6" t="s">
+    <row r="56" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C56" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D56" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E55" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="6" t="s">
+      <c r="E56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G56" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" ht="28.35" spans="3:7">
-      <c r="C56" s="6" t="s">
+    <row r="57" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C57" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="6" t="s">
+      <c r="E57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" ht="42.15" spans="3:7">
-      <c r="C57" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="58" ht="28.35" spans="3:7">
+    <row r="58" spans="3:7" ht="15.75" thickBot="1">
       <c r="C58" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>60</v>
@@ -1891,15 +1405,15 @@
         <v>9</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" ht="42.15" spans="3:7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" ht="15.75" thickBot="1">
       <c r="C59" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>60</v>
@@ -1908,87 +1422,105 @@
         <v>9</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="61" ht="15.15" spans="3:3">
-      <c r="C61" s="4" t="s">
+    <row r="60" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C60" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C62" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" ht="28.35" spans="3:7">
-      <c r="C62" s="5" t="s">
+    <row r="63" spans="3:7" ht="30.75" thickBot="1">
+      <c r="C63" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E63" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F63" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G63" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" ht="28.35" spans="3:7">
-      <c r="C63" s="6" t="s">
+    <row r="64" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C64" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D64" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="6" t="s">
+      <c r="E64" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="G64" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="64" ht="28.35" spans="3:7">
-      <c r="C64" s="6" t="s">
+    <row r="65" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C65" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D65" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E64" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="6" t="s">
+      <c r="E65" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" ht="42.15" spans="3:7">
-      <c r="C65" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="66" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>